--- a/data/georgia_census/mcxeta-mtianeti/yazbegi/healthcare_staff.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/yazbegi/healthcare_staff.xlsx
@@ -1364,13 +1364,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{287D44E1-1E1E-4980-B732-D3A763E7A599}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B8E96C2-B53C-4FCF-922E-38C449D67EB5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A595F29-5290-40D0-8A27-1066087F9040}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7336265F-3195-408F-8035-AE54C9B3F00E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3482DC86-D5F1-4744-B83E-EF2C7C29BE48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B70F0461-CFA6-4CCD-9828-B7098BED905A}"/>
 </file>